--- a/Chart Combination.xlsx
+++ b/Chart Combination.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/OneDrive/Reading HARD!!!/Spring 2017/Research Project/figmenta/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,8 @@
     <sheet name="Plot with dim chara" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Priority of features" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Features' Priotity " sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="372">
   <si>
     <t>Box plot</t>
   </si>
@@ -1076,15 +1077,9 @@
     <t>or use 3D</t>
   </si>
   <si>
-    <t>5E, 5F, 5H, 5I dots can not have texture</t>
-  </si>
-  <si>
     <t>use  scatter</t>
   </si>
   <si>
-    <t>L when using DN as a catagorical label</t>
-  </si>
-  <si>
     <t>or use scatter</t>
   </si>
   <si>
@@ -1104,6 +1099,54 @@
   </si>
   <si>
     <t>(tie) 13F 1&amp; 4F requires binning</t>
+  </si>
+  <si>
+    <t>Base Dimension</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>CN (+C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN + CN </t>
+  </si>
+  <si>
+    <t>CN + CN  + CN</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>For?</t>
+  </si>
+  <si>
+    <t>CN + C + C</t>
+  </si>
+  <si>
+    <t>CN + C</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Comparing</t>
+  </si>
+  <si>
+    <t>Trending</t>
+  </si>
+  <si>
+    <t>for 5E, 5F, 5H, 5I dots can not have texture</t>
+  </si>
+  <si>
+    <t>F when using DN as a catagorical label</t>
+  </si>
+  <si>
+    <t>pp;</t>
   </si>
 </sst>
 </file>
@@ -1163,12 +1206,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1206,7 +1255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1237,9 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,6 +1313,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1612,8 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="92" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="C1:H1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3890,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4164,7 +4219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4175,68 +4230,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4244,7 +4299,7 @@
       <c r="A3" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -4253,23 +4308,23 @@
       <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" s="13">
+        <v>348</v>
+      </c>
+      <c r="H3" s="24">
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K3" s="13">
         <v>1</v>
@@ -4285,7 +4340,7 @@
       <c r="A4" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4294,23 +4349,23 @@
       <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>335</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="H4" s="13">
+        <v>348</v>
+      </c>
+      <c r="H4" s="24">
         <v>3</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K4" s="13">
         <v>3</v>
@@ -4326,7 +4381,7 @@
       <c r="A5" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4335,23 +4390,23 @@
       <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="24">
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>343</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="H5" s="13">
+        <v>348</v>
+      </c>
+      <c r="H5" s="24">
         <v>2</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K5" s="13">
         <v>2</v>
@@ -4489,75 +4544,77 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="F9" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>344</v>
       </c>
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>333</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>345</v>
       </c>
       <c r="M12" s="13"/>
@@ -4566,28 +4623,28 @@
       <c r="A13" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="24">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="27" t="s">
         <v>346</v>
       </c>
       <c r="H13" s="13">
         <v>1</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>341</v>
       </c>
       <c r="J13" s="13">
@@ -4601,28 +4658,28 @@
       <c r="A14" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="24">
         <v>4</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="27" t="s">
         <v>346</v>
       </c>
       <c r="H14" s="13">
         <v>3</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>341</v>
       </c>
       <c r="J14" s="13">
@@ -4636,65 +4693,65 @@
       <c r="A15" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="24">
         <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>4</v>
       </c>
       <c r="J15" s="13">
         <v>0</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="13">
+        <v>352</v>
+      </c>
+      <c r="B16" s="24">
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E16" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>1</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>1</v>
       </c>
       <c r="J16" s="13">
@@ -4717,19 +4774,19 @@
       <c r="D17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>4</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <v>4</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>340</v>
       </c>
       <c r="J17" s="13">
@@ -4758,7 +4815,7 @@
       <c r="F18" s="13">
         <v>5</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="27" t="s">
         <v>346</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -4789,14 +4846,14 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -4823,16 +4880,149 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chart Combination.xlsx
+++ b/Chart Combination.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plot with dim chara" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Priority of features" sheetId="5" r:id="rId3"/>
-    <sheet name="Features' Priotity " sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Priority of features" sheetId="5" r:id="rId2"/>
+    <sheet name="Features' Priotity " sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Bar Chart cases" sheetId="9" r:id="rId5"/>
+    <sheet name="Line Chart cases" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="428">
   <si>
     <t>Box plot</t>
   </si>
@@ -1147,13 +1148,181 @@
   </si>
   <si>
     <t>pp;</t>
+  </si>
+  <si>
+    <t>x base dimension: Cata;</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>('Cata',)</t>
+  </si>
+  <si>
+    <t>('Seq',)</t>
+  </si>
+  <si>
+    <t>('Num',)</t>
+  </si>
+  <si>
+    <t>('Cata', 'Seq')</t>
+  </si>
+  <si>
+    <t>('Cata', 'Num')</t>
+  </si>
+  <si>
+    <t>('Seq', 'Num')</t>
+  </si>
+  <si>
+    <t>('Cata', 'Seq', 'Num')</t>
+  </si>
+  <si>
+    <t>Y base dimension: Num</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Catagorical</t>
+  </si>
+  <si>
+    <t>Chart Selection</t>
+  </si>
+  <si>
+    <t>Group Bar Chart</t>
+  </si>
+  <si>
+    <t>// Line Chart</t>
+  </si>
+  <si>
+    <t>Line Chart Matrix</t>
+  </si>
+  <si>
+    <t>// Scatter Plot? (x: num + num; y: cata)</t>
+  </si>
+  <si>
+    <t>('Cata', 'Cata')</t>
+  </si>
+  <si>
+    <t>('Seq', ''Seq')</t>
+  </si>
+  <si>
+    <t>('Num', 'Num')</t>
+  </si>
+  <si>
+    <t>extra x dimension(s)</t>
+  </si>
+  <si>
+    <t>Group Bar Char/ Bar Chart Matrix</t>
+  </si>
+  <si>
+    <t>Cata</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Cata,Cata</t>
+  </si>
+  <si>
+    <t>Cata,Seq</t>
+  </si>
+  <si>
+    <t>Cata,Num</t>
+  </si>
+  <si>
+    <t>Seq,Seq</t>
+  </si>
+  <si>
+    <t>Seq,Num</t>
+  </si>
+  <si>
+    <t>Num,Num</t>
+  </si>
+  <si>
+    <t>Cata,Cata,Cata</t>
+  </si>
+  <si>
+    <t>Cata,Cata,Seq</t>
+  </si>
+  <si>
+    <t>Cata,Cata,Num</t>
+  </si>
+  <si>
+    <t>Cata,Seq,Seq</t>
+  </si>
+  <si>
+    <t>Cata,Seq,Num</t>
+  </si>
+  <si>
+    <t>Cata,Num,Num</t>
+  </si>
+  <si>
+    <t>Seq,Seq,Seq</t>
+  </si>
+  <si>
+    <t>Seq,Seq,Num</t>
+  </si>
+  <si>
+    <t>Seq,Num,Num</t>
+  </si>
+  <si>
+    <t>Num,Num,Num</t>
+  </si>
+  <si>
+    <t>fixed_x</t>
+  </si>
+  <si>
+    <t>fiexd_y</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t># feat</t>
+  </si>
+  <si>
+    <t>// how to represent the difference?</t>
+  </si>
+  <si>
+    <t>extra_x_dims \t extra_y_dims</t>
+  </si>
+  <si>
+    <t>3d line chart/dual axis line chart</t>
+  </si>
+  <si>
+    <t>group 3d line chart/group dual axis line chart</t>
+  </si>
+  <si>
+    <t>3d dual line chart</t>
+  </si>
+  <si>
+    <t>// how to use dual axis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// when there are three more </t>
+  </si>
+  <si>
+    <t>panel chart</t>
+  </si>
+  <si>
+    <t>group line chart / panel chart</t>
+  </si>
+  <si>
+    <t>group 3d dual line chart / panel chart</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1205,6 +1374,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1255,7 +1434,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,15 +1494,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1612,8 +1793,8 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="92" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3895,54 +4076,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A8"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
@@ -4213,11 +4346,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -4233,26 +4366,26 @@
       <c r="A1" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -4550,7 +4683,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>371</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -4561,21 +4694,21 @@
       <c r="A11" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="13"/>
       <c r="L11" s="14" t="s">
         <v>344</v>
@@ -4638,7 +4771,7 @@
       <c r="F13" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>346</v>
       </c>
       <c r="H13" s="13">
@@ -4673,7 +4806,7 @@
       <c r="F14" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>346</v>
       </c>
       <c r="H14" s="13">
@@ -4708,7 +4841,7 @@
       <c r="F15" s="20">
         <v>4</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>346</v>
       </c>
       <c r="H15" s="19" t="s">
@@ -4745,7 +4878,7 @@
       <c r="F16" s="22">
         <v>1</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>346</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -4780,7 +4913,7 @@
       <c r="F17" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>346</v>
       </c>
       <c r="H17" s="21">
@@ -4815,7 +4948,7 @@
       <c r="F18" s="13">
         <v>5</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>346</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -4894,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5025,4 +5158,1668 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F401"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="29"/>
+    <col min="3" max="3" width="31.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="28"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="28"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="28"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="28"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="28"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="28"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="28"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="28"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="28"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="28"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="28"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="28"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="28"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="28"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="28"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="28"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="28"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="28"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="28"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="28"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="28"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="28"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="28"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="28"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="28"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="28"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="28"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="28"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="28"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="28"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="28"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="28"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="28"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="28"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="28"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="28"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="28"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="28"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="28"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="28"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="28"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="28"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="28"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="28"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="28"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="28"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="28"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="28"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="28"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="28"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="28"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="28"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="28"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="28"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="28"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="28"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="28"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="28"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="28"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="28"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="28"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="28"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="28"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="28"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="28"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="28"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="28"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="28"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="28"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="28"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="28"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="28"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="28"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="28"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="28"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="28"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="28"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="28"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="28"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="28"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="28"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="28"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="28"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="28"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="28"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="28"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="28"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="28"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="28"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="28"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="28"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="28"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="28"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="28"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="28"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="28"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="28"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="28"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="28"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="28"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="28"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="28"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="28"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="28"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="28"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="28"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="28"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="28"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="28"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="28"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="28"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="28"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="28"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="28"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="28"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="28"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="28"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="28"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="28"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="28"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="28"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="28"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="28"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="28"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="28"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="28"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="28"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="28"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="28"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="28"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="28"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="28"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="28"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="28"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="28"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="28"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="28"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="28"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="28"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="28"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="28"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="28"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="28"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="28"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="28"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="28"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="28"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="28"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="28"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="28"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="28"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="28"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="28"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="28"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="28"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="28"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="28"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="28"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="28"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="28"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="28"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="28"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="28"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="28"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="28"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="28"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="28"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="28"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="28"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="28"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="28"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="28"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="28"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="28"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="28"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="28"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="28"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="28"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="28"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="28"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="28"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="28"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="28"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="28"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="28"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="28"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="28"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="28"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="28"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="28"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="28"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="28"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="28"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="28"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="28"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="28"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="28"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="28"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="28"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="28"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="28"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="28"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="28"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="28"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="28"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="28"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="28"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="28"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="28"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="28"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="28"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="28"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="28"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="28"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="28"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="28"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="28"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="28"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="28"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="28"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="28"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="28"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="28"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="28"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="28"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="28"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="28"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="28"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="28"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="28"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="28"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="28"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="28"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="28"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="28"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="28"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="28"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="28"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" s="28"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" s="28"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" s="28"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="28"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="28"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" s="28"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" s="28"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" s="28"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="28"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" s="28"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" s="28"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="28"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" s="28"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="28"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" s="28"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" s="28"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="28"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" s="28"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" s="28"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" s="28"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" s="28"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" s="28"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" s="28"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" s="28"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" s="28"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="28"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" s="28"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" s="28"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" s="28"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" s="28"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" s="28"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" s="28"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" s="28"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" s="28"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" s="28"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" s="28"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" s="28"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" s="28"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" s="28"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" s="28"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" s="28"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" s="28"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="28"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" s="28"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" s="28"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" s="28"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="28"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" s="28"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" s="28"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" s="28"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" s="28"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" s="28"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="28"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" s="28"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" s="28"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" s="28"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" s="28"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" s="28"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" s="28"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" s="28"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" s="28"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" s="28"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" s="28"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" s="28"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" s="28"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" s="28"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" s="28"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="28"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" s="28"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" s="28"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" s="28"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" s="28"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" s="28"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="28"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="28"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" s="28"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" s="28"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" s="28"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" s="28"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" s="28"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="28"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="28"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="28"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="28"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="28"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" s="28"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" s="28"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" s="28"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" s="28"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" s="28"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" s="28"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chart Combination.xlsx
+++ b/Chart Combination.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plot with dim chara" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="427">
   <si>
     <t>Box plot</t>
   </si>
@@ -1313,9 +1313,6 @@
   </si>
   <si>
     <t>group 3d dual line chart / panel chart</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1500,11 +1497,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4366,26 +4363,26 @@
       <c r="A1" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -4694,21 +4691,21 @@
       <c r="A11" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="13"/>
       <c r="L11" s="14" t="s">
         <v>344</v>
@@ -5360,58 +5357,58 @@
   <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="29"/>
-    <col min="3" max="3" width="31.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="28"/>
+    <col min="3" max="3" width="31.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>396</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>394</v>
       </c>
       <c r="D3" t="s">
@@ -5422,13 +5419,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>395</v>
       </c>
       <c r="D4" t="s">
@@ -5436,13 +5433,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>396</v>
       </c>
       <c r="D5" t="s">
@@ -5453,13 +5450,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>397</v>
       </c>
       <c r="D6" t="s">
@@ -5467,27 +5464,27 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>399</v>
       </c>
       <c r="D8" t="s">
@@ -5495,13 +5492,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>400</v>
       </c>
       <c r="D9" t="s">
@@ -5509,13 +5506,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>401</v>
       </c>
       <c r="D10" t="s">
@@ -5523,13 +5520,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>402</v>
       </c>
       <c r="D11" t="s">
@@ -5537,13 +5534,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>403</v>
       </c>
       <c r="D12" t="s">
@@ -5554,13 +5551,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>404</v>
       </c>
       <c r="D13" t="s">
@@ -5568,13 +5565,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>405</v>
       </c>
       <c r="D14" t="s">
@@ -5582,13 +5579,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>406</v>
       </c>
       <c r="D15" t="s">
@@ -5596,13 +5593,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>407</v>
       </c>
       <c r="D16" t="s">
@@ -5610,13 +5607,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>408</v>
       </c>
       <c r="D17" t="s">
@@ -5624,13 +5621,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>409</v>
       </c>
       <c r="D18" t="s">
@@ -5638,13 +5635,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>410</v>
       </c>
       <c r="D19" t="s">
@@ -5652,13 +5649,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>411</v>
       </c>
       <c r="D20" t="s">
@@ -5666,13 +5663,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>412</v>
       </c>
       <c r="D21" t="s">
@@ -5680,1144 +5677,1144 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="28"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="28"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="28"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="28"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="28"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="28"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="28"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="28"/>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="28"/>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="28"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="28"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="28"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="28"/>
+      <c r="C36" s="27"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="28"/>
+      <c r="C37" s="27"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="28"/>
+      <c r="C38" s="27"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="28"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="28"/>
+      <c r="C40" s="27"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="28"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="28"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="28"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="28"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="28"/>
+      <c r="C45" s="27"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="28"/>
+      <c r="C46" s="27"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="28"/>
+      <c r="C47" s="27"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="28"/>
+      <c r="C48" s="27"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="28"/>
+      <c r="C49" s="27"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="28"/>
+      <c r="C50" s="27"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="28"/>
+      <c r="C51" s="27"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="28"/>
+      <c r="C52" s="27"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="28"/>
+      <c r="C53" s="27"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="28"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="28"/>
+      <c r="C55" s="27"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="28"/>
+      <c r="C56" s="27"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="28"/>
+      <c r="C57" s="27"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="28"/>
+      <c r="C58" s="27"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="28"/>
+      <c r="C59" s="27"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="28"/>
+      <c r="C60" s="27"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="28"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="28"/>
+      <c r="C62" s="27"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="28"/>
+      <c r="C63" s="27"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="28"/>
+      <c r="C64" s="27"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="28"/>
+      <c r="C65" s="27"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="28"/>
+      <c r="C66" s="27"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="28"/>
+      <c r="C67" s="27"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="28"/>
+      <c r="C68" s="27"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="28"/>
+      <c r="C69" s="27"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="28"/>
+      <c r="C70" s="27"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="28"/>
+      <c r="C71" s="27"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="28"/>
+      <c r="C72" s="27"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="28"/>
+      <c r="C73" s="27"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="28"/>
+      <c r="C74" s="27"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="28"/>
+      <c r="C75" s="27"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="28"/>
+      <c r="C76" s="27"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="28"/>
+      <c r="C77" s="27"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="28"/>
+      <c r="C78" s="27"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="28"/>
+      <c r="C79" s="27"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="28"/>
+      <c r="C80" s="27"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="28"/>
+      <c r="C81" s="27"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="28"/>
+      <c r="C82" s="27"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="28"/>
+      <c r="C83" s="27"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="28"/>
+      <c r="C84" s="27"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="28"/>
+      <c r="C85" s="27"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="28"/>
+      <c r="C86" s="27"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="28"/>
+      <c r="C87" s="27"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="28"/>
+      <c r="C88" s="27"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="28"/>
+      <c r="C89" s="27"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="28"/>
+      <c r="C90" s="27"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="28"/>
+      <c r="C91" s="27"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="28"/>
+      <c r="C92" s="27"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="28"/>
+      <c r="C93" s="27"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="28"/>
+      <c r="C94" s="27"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="28"/>
+      <c r="C95" s="27"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="28"/>
+      <c r="C96" s="27"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="28"/>
+      <c r="C97" s="27"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="28"/>
+      <c r="C98" s="27"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="28"/>
+      <c r="C99" s="27"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="28"/>
+      <c r="C100" s="27"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="28"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="28"/>
+      <c r="C102" s="27"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="28"/>
+      <c r="C103" s="27"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="28"/>
+      <c r="C104" s="27"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="28"/>
+      <c r="C105" s="27"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="28"/>
+      <c r="C106" s="27"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="28"/>
+      <c r="C107" s="27"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="28"/>
+      <c r="C108" s="27"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="28"/>
+      <c r="C109" s="27"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="28"/>
+      <c r="C110" s="27"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="28"/>
+      <c r="C111" s="27"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="28"/>
+      <c r="C112" s="27"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="28"/>
+      <c r="C113" s="27"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="28"/>
+      <c r="C114" s="27"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="28"/>
+      <c r="C115" s="27"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="28"/>
+      <c r="C116" s="27"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="28"/>
+      <c r="C117" s="27"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="28"/>
+      <c r="C118" s="27"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="28"/>
+      <c r="C119" s="27"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="28"/>
+      <c r="C120" s="27"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="28"/>
+      <c r="C121" s="27"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="28"/>
+      <c r="C122" s="27"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="28"/>
+      <c r="C123" s="27"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="28"/>
+      <c r="C124" s="27"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="28"/>
+      <c r="C125" s="27"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="28"/>
+      <c r="C126" s="27"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="28"/>
+      <c r="C127" s="27"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="28"/>
+      <c r="C128" s="27"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="28"/>
+      <c r="C129" s="27"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="28"/>
+      <c r="C130" s="27"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="28"/>
+      <c r="C131" s="27"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="28"/>
+      <c r="C132" s="27"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="28"/>
+      <c r="C133" s="27"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="28"/>
+      <c r="C134" s="27"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="28"/>
+      <c r="C135" s="27"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="28"/>
+      <c r="C136" s="27"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="28"/>
+      <c r="C137" s="27"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="28"/>
+      <c r="C138" s="27"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="28"/>
+      <c r="C139" s="27"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="28"/>
+      <c r="C140" s="27"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="28"/>
+      <c r="C141" s="27"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="28"/>
+      <c r="C142" s="27"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="28"/>
+      <c r="C143" s="27"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="28"/>
+      <c r="C144" s="27"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="28"/>
+      <c r="C145" s="27"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="28"/>
+      <c r="C146" s="27"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="28"/>
+      <c r="C147" s="27"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="28"/>
+      <c r="C148" s="27"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="28"/>
+      <c r="C149" s="27"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="28"/>
+      <c r="C150" s="27"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="28"/>
+      <c r="C151" s="27"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="28"/>
+      <c r="C152" s="27"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="28"/>
+      <c r="C153" s="27"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="28"/>
+      <c r="C154" s="27"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="28"/>
+      <c r="C155" s="27"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C156" s="28"/>
+      <c r="C156" s="27"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="28"/>
+      <c r="C157" s="27"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C158" s="28"/>
+      <c r="C158" s="27"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="28"/>
+      <c r="C159" s="27"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C160" s="28"/>
+      <c r="C160" s="27"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="28"/>
+      <c r="C161" s="27"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="28"/>
+      <c r="C162" s="27"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="28"/>
+      <c r="C163" s="27"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="28"/>
+      <c r="C164" s="27"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="28"/>
+      <c r="C165" s="27"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="28"/>
+      <c r="C166" s="27"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="28"/>
+      <c r="C167" s="27"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="28"/>
+      <c r="C168" s="27"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="28"/>
+      <c r="C169" s="27"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="28"/>
+      <c r="C170" s="27"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="28"/>
+      <c r="C171" s="27"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="28"/>
+      <c r="C172" s="27"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="28"/>
+      <c r="C173" s="27"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="28"/>
+      <c r="C174" s="27"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="28"/>
+      <c r="C175" s="27"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="28"/>
+      <c r="C176" s="27"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="28"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" s="28"/>
+      <c r="C178" s="27"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="28"/>
+      <c r="C179" s="27"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="28"/>
+      <c r="C180" s="27"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C181" s="28"/>
+      <c r="C181" s="27"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="28"/>
+      <c r="C182" s="27"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="28"/>
+      <c r="C183" s="27"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C184" s="28"/>
+      <c r="C184" s="27"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C185" s="28"/>
+      <c r="C185" s="27"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C186" s="28"/>
+      <c r="C186" s="27"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C187" s="28"/>
+      <c r="C187" s="27"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C188" s="28"/>
+      <c r="C188" s="27"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" s="28"/>
+      <c r="C189" s="27"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C190" s="28"/>
+      <c r="C190" s="27"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C191" s="28"/>
+      <c r="C191" s="27"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C192" s="28"/>
+      <c r="C192" s="27"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="28"/>
+      <c r="C193" s="27"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="28"/>
+      <c r="C194" s="27"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C195" s="28"/>
+      <c r="C195" s="27"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="28"/>
+      <c r="C196" s="27"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C197" s="28"/>
+      <c r="C197" s="27"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C198" s="28"/>
+      <c r="C198" s="27"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C199" s="28"/>
+      <c r="C199" s="27"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="28"/>
+      <c r="C200" s="27"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="28"/>
+      <c r="C201" s="27"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="28"/>
+      <c r="C202" s="27"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="28"/>
+      <c r="C203" s="27"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="28"/>
+      <c r="C204" s="27"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" s="28"/>
+      <c r="C205" s="27"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="28"/>
+      <c r="C206" s="27"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" s="28"/>
+      <c r="C207" s="27"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="28"/>
+      <c r="C208" s="27"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" s="28"/>
+      <c r="C209" s="27"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="28"/>
+      <c r="C210" s="27"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="28"/>
+      <c r="C211" s="27"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="28"/>
+      <c r="C212" s="27"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" s="28"/>
+      <c r="C213" s="27"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="28"/>
+      <c r="C214" s="27"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" s="28"/>
+      <c r="C215" s="27"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="28"/>
+      <c r="C216" s="27"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="28"/>
+      <c r="C217" s="27"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="28"/>
+      <c r="C218" s="27"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" s="28"/>
+      <c r="C219" s="27"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="28"/>
+      <c r="C220" s="27"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" s="28"/>
+      <c r="C221" s="27"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="28"/>
+      <c r="C222" s="27"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="28"/>
+      <c r="C223" s="27"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="28"/>
+      <c r="C224" s="27"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" s="28"/>
+      <c r="C225" s="27"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="28"/>
+      <c r="C226" s="27"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="28"/>
+      <c r="C227" s="27"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="28"/>
+      <c r="C228" s="27"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="28"/>
+      <c r="C229" s="27"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="28"/>
+      <c r="C230" s="27"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="28"/>
+      <c r="C231" s="27"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="28"/>
+      <c r="C232" s="27"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="28"/>
+      <c r="C233" s="27"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="28"/>
+      <c r="C234" s="27"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C235" s="28"/>
+      <c r="C235" s="27"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" s="28"/>
+      <c r="C236" s="27"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="28"/>
+      <c r="C237" s="27"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" s="28"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C239" s="28"/>
+      <c r="C239" s="27"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C240" s="28"/>
+      <c r="C240" s="27"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C241" s="28"/>
+      <c r="C241" s="27"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C242" s="28"/>
+      <c r="C242" s="27"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="28"/>
+      <c r="C243" s="27"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="28"/>
+      <c r="C244" s="27"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C245" s="28"/>
+      <c r="C245" s="27"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="28"/>
+      <c r="C246" s="27"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C247" s="28"/>
+      <c r="C247" s="27"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="28"/>
+      <c r="C248" s="27"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C249" s="28"/>
+      <c r="C249" s="27"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C250" s="28"/>
+      <c r="C250" s="27"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="28"/>
+      <c r="C251" s="27"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C252" s="28"/>
+      <c r="C252" s="27"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C253" s="28"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="28"/>
+      <c r="C254" s="27"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C255" s="28"/>
+      <c r="C255" s="27"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C256" s="28"/>
+      <c r="C256" s="27"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C257" s="28"/>
+      <c r="C257" s="27"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="28"/>
+      <c r="C258" s="27"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C259" s="28"/>
+      <c r="C259" s="27"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="28"/>
+      <c r="C260" s="27"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C261" s="28"/>
+      <c r="C261" s="27"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="28"/>
+      <c r="C262" s="27"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C263" s="28"/>
+      <c r="C263" s="27"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="28"/>
+      <c r="C264" s="27"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="28"/>
+      <c r="C265" s="27"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C266" s="28"/>
+      <c r="C266" s="27"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C267" s="28"/>
+      <c r="C267" s="27"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C268" s="28"/>
+      <c r="C268" s="27"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="28"/>
+      <c r="C269" s="27"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="28"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C271" s="28"/>
+      <c r="C271" s="27"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C272" s="28"/>
+      <c r="C272" s="27"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C273" s="28"/>
+      <c r="C273" s="27"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="28"/>
+      <c r="C274" s="27"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C275" s="28"/>
+      <c r="C275" s="27"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="28"/>
+      <c r="C276" s="27"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C277" s="28"/>
+      <c r="C277" s="27"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C278" s="28"/>
+      <c r="C278" s="27"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="28"/>
+      <c r="C279" s="27"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C280" s="28"/>
+      <c r="C280" s="27"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C281" s="28"/>
+      <c r="C281" s="27"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C282" s="28"/>
+      <c r="C282" s="27"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C283" s="28"/>
+      <c r="C283" s="27"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="28"/>
+      <c r="C284" s="27"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C285" s="28"/>
+      <c r="C285" s="27"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="28"/>
+      <c r="C286" s="27"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C287" s="28"/>
+      <c r="C287" s="27"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C288" s="28"/>
+      <c r="C288" s="27"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C289" s="28"/>
+      <c r="C289" s="27"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="28"/>
+      <c r="C290" s="27"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C291" s="28"/>
+      <c r="C291" s="27"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="28"/>
+      <c r="C292" s="27"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C293" s="28"/>
+      <c r="C293" s="27"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="28"/>
+      <c r="C294" s="27"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="28"/>
+      <c r="C295" s="27"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C296" s="28"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="28"/>
+      <c r="C297" s="27"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C298" s="28"/>
+      <c r="C298" s="27"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C299" s="28"/>
+      <c r="C299" s="27"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C300" s="28"/>
+      <c r="C300" s="27"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="28"/>
+      <c r="C301" s="27"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C302" s="28"/>
+      <c r="C302" s="27"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C303" s="28"/>
+      <c r="C303" s="27"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C304" s="28"/>
+      <c r="C304" s="27"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="28"/>
+      <c r="C305" s="27"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C306" s="28"/>
+      <c r="C306" s="27"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C307" s="28"/>
+      <c r="C307" s="27"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C308" s="28"/>
+      <c r="C308" s="27"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C309" s="28"/>
+      <c r="C309" s="27"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="28"/>
+      <c r="C310" s="27"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C311" s="28"/>
+      <c r="C311" s="27"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C312" s="28"/>
+      <c r="C312" s="27"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C313" s="28"/>
+      <c r="C313" s="27"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C314" s="28"/>
+      <c r="C314" s="27"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C315" s="28"/>
+      <c r="C315" s="27"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C316" s="28"/>
+      <c r="C316" s="27"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C317" s="28"/>
+      <c r="C317" s="27"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C318" s="28"/>
+      <c r="C318" s="27"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C319" s="28"/>
+      <c r="C319" s="27"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C320" s="28"/>
+      <c r="C320" s="27"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C321" s="28"/>
+      <c r="C321" s="27"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C322" s="28"/>
+      <c r="C322" s="27"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C323" s="28"/>
+      <c r="C323" s="27"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C324" s="28"/>
+      <c r="C324" s="27"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C325" s="28"/>
+      <c r="C325" s="27"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C326" s="28"/>
+      <c r="C326" s="27"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C327" s="28"/>
+      <c r="C327" s="27"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C328" s="28"/>
+      <c r="C328" s="27"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C329" s="28"/>
+      <c r="C329" s="27"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C330" s="28"/>
+      <c r="C330" s="27"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C331" s="28"/>
+      <c r="C331" s="27"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C332" s="28"/>
+      <c r="C332" s="27"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C333" s="28"/>
+      <c r="C333" s="27"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="28"/>
+      <c r="C334" s="27"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="28"/>
+      <c r="C335" s="27"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C336" s="28"/>
+      <c r="C336" s="27"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C337" s="28"/>
+      <c r="C337" s="27"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C338" s="28"/>
+      <c r="C338" s="27"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="28"/>
+      <c r="C339" s="27"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C340" s="28"/>
+      <c r="C340" s="27"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C341" s="28"/>
+      <c r="C341" s="27"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C342" s="28"/>
+      <c r="C342" s="27"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C343" s="28"/>
+      <c r="C343" s="27"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C344" s="28"/>
+      <c r="C344" s="27"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C345" s="28"/>
+      <c r="C345" s="27"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C346" s="28"/>
+      <c r="C346" s="27"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C347" s="28"/>
+      <c r="C347" s="27"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C348" s="28"/>
+      <c r="C348" s="27"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="28"/>
+      <c r="C349" s="27"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C350" s="28"/>
+      <c r="C350" s="27"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="28"/>
+      <c r="C351" s="27"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C352" s="28"/>
+      <c r="C352" s="27"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C353" s="28"/>
+      <c r="C353" s="27"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C354" s="28"/>
+      <c r="C354" s="27"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C355" s="28"/>
+      <c r="C355" s="27"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C356" s="28"/>
+      <c r="C356" s="27"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C357" s="28"/>
+      <c r="C357" s="27"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C358" s="28"/>
+      <c r="C358" s="27"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C359" s="28"/>
+      <c r="C359" s="27"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C360" s="28"/>
+      <c r="C360" s="27"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C361" s="28"/>
+      <c r="C361" s="27"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="28"/>
+      <c r="C362" s="27"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C363" s="28"/>
+      <c r="C363" s="27"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C364" s="28"/>
+      <c r="C364" s="27"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="28"/>
+      <c r="C365" s="27"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="28"/>
+      <c r="C366" s="27"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="28"/>
+      <c r="C367" s="27"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C368" s="28"/>
+      <c r="C368" s="27"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="28"/>
+      <c r="C369" s="27"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C370" s="28"/>
+      <c r="C370" s="27"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="28"/>
+      <c r="C371" s="27"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C372" s="28"/>
+      <c r="C372" s="27"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C373" s="28"/>
+      <c r="C373" s="27"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C374" s="28"/>
+      <c r="C374" s="27"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C375" s="28"/>
+      <c r="C375" s="27"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C376" s="28"/>
+      <c r="C376" s="27"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C377" s="28"/>
+      <c r="C377" s="27"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="28"/>
+      <c r="C378" s="27"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C379" s="28"/>
+      <c r="C379" s="27"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C380" s="28"/>
+      <c r="C380" s="27"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C381" s="28"/>
+      <c r="C381" s="27"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="28"/>
+      <c r="C382" s="27"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C383" s="28"/>
+      <c r="C383" s="27"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="28"/>
+      <c r="C384" s="27"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C385" s="28"/>
+      <c r="C385" s="27"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C386" s="28"/>
+      <c r="C386" s="27"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C387" s="28"/>
+      <c r="C387" s="27"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C388" s="28"/>
+      <c r="C388" s="27"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C389" s="28"/>
+      <c r="C389" s="27"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C390" s="28"/>
+      <c r="C390" s="27"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="28"/>
+      <c r="C391" s="27"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C392" s="28"/>
+      <c r="C392" s="27"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C393" s="28"/>
+      <c r="C393" s="27"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="28"/>
+      <c r="C394" s="27"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C395" s="28"/>
+      <c r="C395" s="27"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C396" s="28"/>
+      <c r="C396" s="27"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C397" s="28"/>
+      <c r="C397" s="27"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C398" s="28"/>
+      <c r="C398" s="27"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C399" s="28"/>
+      <c r="C399" s="27"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C400" s="28"/>
+      <c r="C400" s="27"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C401" s="28"/>
+      <c r="C401" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chart Combination.xlsx
+++ b/Chart Combination.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plot with dim chara" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="434">
   <si>
     <t>Box plot</t>
   </si>
@@ -1087,9 +1087,6 @@
     <t>1*</t>
   </si>
   <si>
-    <t>use 3D line</t>
-  </si>
-  <si>
     <t>Size/Width</t>
   </si>
   <si>
@@ -1276,24 +1273,15 @@
     <t>fixed_x</t>
   </si>
   <si>
-    <t>fiexd_y</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
     <t># feat</t>
   </si>
   <si>
-    <t>// how to represent the difference?</t>
-  </si>
-  <si>
     <t>extra_x_dims \t extra_y_dims</t>
   </si>
   <si>
-    <t>3d line chart/dual axis line chart</t>
-  </si>
-  <si>
     <t>group 3d line chart/group dual axis line chart</t>
   </si>
   <si>
@@ -1303,9 +1291,6 @@
     <t>// how to use dual axis?</t>
   </si>
   <si>
-    <t xml:space="preserve">// when there are three more </t>
-  </si>
-  <si>
     <t>panel chart</t>
   </si>
   <si>
@@ -1313,13 +1298,49 @@
   </si>
   <si>
     <t>group 3d dual line chart / panel chart</t>
+  </si>
+  <si>
+    <t>fixed_y</t>
+  </si>
+  <si>
+    <t>3d line chart</t>
+  </si>
+  <si>
+    <t>N/A *</t>
+  </si>
+  <si>
+    <t>* unless there are clear pattern</t>
+  </si>
+  <si>
+    <t>// do we want to pick another chart ?</t>
+  </si>
+  <si>
+    <t>1, Go back and change x &amp; y</t>
+  </si>
+  <si>
+    <t>2, dual axis</t>
+  </si>
+  <si>
+    <t>3, stack y axis line chart</t>
+  </si>
+  <si>
+    <t>4, 3d ish line chart</t>
+  </si>
+  <si>
+    <t>for extra dimension that are not cata</t>
+  </si>
+  <si>
+    <t>multiple y_dimensions</t>
+  </si>
+  <si>
+    <t>to discuss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1381,6 +1402,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1431,7 +1457,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1502,6 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4075,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+    <sheetView showRuler="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4347,9 +4374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="170" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4386,7 +4413,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>334</v>
@@ -4681,10 +4708,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4714,7 +4741,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>334</v>
@@ -4757,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
@@ -4789,13 +4816,13 @@
         <v>310</v>
       </c>
       <c r="B14" s="24">
-        <v>4</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>351</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="24">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -4827,10 +4854,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>343</v>
@@ -4851,23 +4878,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16" s="24">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>351</v>
+      <c r="B16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>340</v>
@@ -4966,6 +4993,11 @@
         <v>347</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E21" s="12" t="s">
         <v>342</v>
@@ -4976,14 +5008,14 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -5040,18 +5072,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" t="s">
         <v>361</v>
-      </c>
-      <c r="D2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5059,13 +5091,13 @@
         <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5073,13 +5105,13 @@
         <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5087,13 +5119,13 @@
         <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5101,13 +5133,13 @@
         <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5115,13 +5147,13 @@
         <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5129,13 +5161,13 @@
         <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5143,13 +5175,13 @@
         <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5194,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5175,27 +5207,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
         <v>382</v>
       </c>
-      <c r="B2" t="s">
-        <v>383</v>
-      </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
         <v>324</v>
@@ -5203,75 +5235,75 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" t="s">
         <v>382</v>
       </c>
-      <c r="B3" t="s">
-        <v>383</v>
-      </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="B4" t="s">
-        <v>383</v>
-      </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
         <v>382</v>
       </c>
-      <c r="B5" t="s">
-        <v>383</v>
-      </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
         <v>382</v>
       </c>
-      <c r="B6" t="s">
-        <v>383</v>
-      </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
         <v>382</v>
       </c>
-      <c r="B7" t="s">
-        <v>383</v>
-      </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -5279,13 +5311,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
         <v>382</v>
       </c>
-      <c r="B8" t="s">
-        <v>383</v>
-      </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -5293,27 +5325,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
         <v>382</v>
       </c>
-      <c r="B9" t="s">
-        <v>383</v>
-      </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
         <v>382</v>
       </c>
-      <c r="B10" t="s">
-        <v>383</v>
-      </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -5321,13 +5353,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" t="s">
         <v>382</v>
       </c>
-      <c r="B11" t="s">
-        <v>383</v>
-      </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -5335,13 +5367,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" t="s">
         <v>382</v>
       </c>
-      <c r="B12" t="s">
-        <v>383</v>
-      </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -5354,10 +5386,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,34 +5398,36 @@
     <col min="2" max="2" width="10.83203125" style="28"/>
     <col min="3" max="3" width="31.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>418</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -5403,310 +5437,334 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="27" t="s">
         <v>395</v>
       </c>
+      <c r="C4" s="30" t="s">
+        <v>394</v>
+      </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>397</v>
-      </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>400</v>
+        <v>395</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>401</v>
+        <v>395</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>402</v>
+        <v>395</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>401</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>402</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
-      </c>
-      <c r="F12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>404</v>
+        <v>395</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>405</v>
+        <v>395</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>406</v>
+        <v>395</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="D16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="D17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>412</v>
-      </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="27"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="27"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32" s="27"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">

--- a/Chart Combination.xlsx
+++ b/Chart Combination.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plot with dim chara" sheetId="2" r:id="rId1"/>
-    <sheet name="Priority of features" sheetId="5" r:id="rId2"/>
-    <sheet name="Features' Priotity " sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
-    <sheet name="Bar Chart cases" sheetId="9" r:id="rId5"/>
-    <sheet name="Line Chart cases" sheetId="10" r:id="rId6"/>
+    <sheet name="Features' Priotity " sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="Bar Chart cases" sheetId="9" r:id="rId4"/>
+    <sheet name="Line Chart cases" sheetId="10" r:id="rId5"/>
+    <sheet name="Scatter Plot cases" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="474">
   <si>
     <t>Box plot</t>
   </si>
@@ -955,12 +955,6 @@
     <t xml:space="preserve">Surface Plot </t>
   </si>
   <si>
-    <t>Determine the priority of features for each plot type (dependent on type of data for that feature)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete Number </t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -994,39 +988,9 @@
     <t>Surface Plot</t>
   </si>
   <si>
-    <t>Continuous Number</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Scatter Plot</t>
-  </si>
-  <si>
     <t>Bar Chart</t>
   </si>
   <si>
-    <t>Violin Chart</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>2D?</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>Size (population)</t>
-  </si>
-  <si>
     <t>Box Plot</t>
   </si>
   <si>
@@ -1334,13 +1298,169 @@
   </si>
   <si>
     <t>to discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">several y-range </t>
+  </si>
+  <si>
+    <t>//if overlap?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not make sense (if range diverge too much) </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>if because of range</t>
+  </si>
+  <si>
+    <t>fixed-x</t>
+  </si>
+  <si>
+    <t>fixed-y</t>
+  </si>
+  <si>
+    <t>extra dimensions</t>
+  </si>
+  <si>
+    <t>scatter plot</t>
+  </si>
+  <si>
+    <t>color-grouped scatter plot</t>
+  </si>
+  <si>
+    <t>Cata,DN</t>
+  </si>
+  <si>
+    <t>Cata,CN</t>
+  </si>
+  <si>
+    <t>Seq,DN</t>
+  </si>
+  <si>
+    <t>Seq,CN</t>
+  </si>
+  <si>
+    <t>DN,DN</t>
+  </si>
+  <si>
+    <t>DN,CN</t>
+  </si>
+  <si>
+    <t>CN,CN</t>
+  </si>
+  <si>
+    <t>Cata,Cata,DN</t>
+  </si>
+  <si>
+    <t>Cata,Cata,CN</t>
+  </si>
+  <si>
+    <t>Cata,Seq,DN</t>
+  </si>
+  <si>
+    <t>Cata,Seq,CN</t>
+  </si>
+  <si>
+    <t>Cata,DN,DN</t>
+  </si>
+  <si>
+    <t>Cata,DN,CN</t>
+  </si>
+  <si>
+    <t>Cata,CN,CN</t>
+  </si>
+  <si>
+    <t>Seq,Seq,DN</t>
+  </si>
+  <si>
+    <t>Seq,Seq,CN</t>
+  </si>
+  <si>
+    <t>Seq,DN,DN</t>
+  </si>
+  <si>
+    <t>Seq,DN,CN</t>
+  </si>
+  <si>
+    <t>Seq,CN,CN</t>
+  </si>
+  <si>
+    <t>DN,DN,DN</t>
+  </si>
+  <si>
+    <t>DN,DN,CN</t>
+  </si>
+  <si>
+    <t>DN,CN,CN</t>
+  </si>
+  <si>
+    <t>CN,CN,CN</t>
+  </si>
+  <si>
+    <t>scatter plot with color &amp; Saturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d scatter plot/ scatter plot with color spectrum||saturation </t>
+  </si>
+  <si>
+    <t>scatter plot with color &amp; (size || saturation)</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>scatter plot with color &amp; (size || saturation)/3d scatter plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scatter plot with (size and color) or (size and saturation) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scatter plot with (size and saturation) </t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scatter plot with (spectrum of color and saturation) </t>
+  </si>
+  <si>
+    <t>scatter plot with (color and saturation)</t>
+  </si>
+  <si>
+    <t>scatter plot with (color &amp; saturation &amp; size)</t>
+  </si>
+  <si>
+    <t>scatter plot with size</t>
+  </si>
+  <si>
+    <t>Ignore population for the time being</t>
+  </si>
+  <si>
+    <t>3D scatter plot selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With colour </t>
+  </si>
+  <si>
+    <t>Wth Size or color or saturation</t>
+  </si>
+  <si>
+    <t>With color spectrum or saturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With size and color </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1407,6 +1527,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1446,7 +1573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1456,8 +1583,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1470,7 +1599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1525,20 +1653,26 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1546,6 +1680,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1821,7 +1958,7 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
@@ -4100,945 +4237,674 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showRuler="0" topLeftCell="A8" zoomScale="170" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="7" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s">
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="23">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="23">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="23">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="23">
+        <v>3</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I15" s="19">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>3</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="20">
+        <v>4</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="20">
+        <v>4</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I18" s="12">
+        <v>5</v>
+      </c>
+      <c r="J18" s="12">
+        <v>4</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F19" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" style="8" customWidth="1"/>
-    <col min="2" max="13" width="9.6640625" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="24">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="24">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H4" s="24">
-        <v>3</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K4" s="13">
-        <v>3</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="24">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="24">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="24">
-        <v>2</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K5" s="13">
-        <v>2</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="24">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="J13" s="13">
-        <v>2</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="24">
-        <v>3</v>
-      </c>
-      <c r="C14" s="24">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H14" s="13">
-        <v>3</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="J14" s="13">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="20">
-        <v>4</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="20">
-        <v>4</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="I16" s="23">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13">
-        <v>3</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H17" s="21">
-        <v>4</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13">
-        <v>5</v>
-      </c>
-      <c r="F18" s="13">
-        <v>5</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="I18" s="13">
-        <v>5</v>
-      </c>
-      <c r="J18" s="13">
-        <v>4</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F19" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C20" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E21" s="12" t="s">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5056,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5064,7 +4930,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -5072,116 +4938,116 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5197,7 +5063,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -5207,103 +5073,103 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" t="s">
         <v>371</v>
-      </c>
-      <c r="C1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>375</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -5311,13 +5177,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -5325,27 +5191,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -5353,13 +5219,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -5367,17 +5233,1532 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I401"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="27"/>
+    <col min="3" max="3" width="31.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C12" t="s">
-        <v>379</v>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>390</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="26"/>
+      <c r="F22" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" t="s">
+        <v>420</v>
+      </c>
+      <c r="H23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G24" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="26"/>
+      <c r="E25" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="26"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="26"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="26"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="26"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="26"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="26"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="26"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="26"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="26"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="26"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="26"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="26"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="26"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="26"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="26"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="26"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="26"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="26"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="26"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="26"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="26"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="26"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="26"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="26"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="26"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="26"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="26"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="26"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="26"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="26"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="26"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="26"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="26"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="26"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="26"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="26"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="26"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="26"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="26"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="26"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="26"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="26"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="26"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="26"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="26"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="26"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="26"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="26"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="26"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="26"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="26"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="26"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="26"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="26"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="26"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="26"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="26"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="26"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="26"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="26"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="26"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="26"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="26"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="26"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="26"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="26"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="26"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="26"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="26"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="26"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="26"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="26"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="26"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="26"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="26"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="26"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="26"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="26"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="26"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="26"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="26"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="26"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="26"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="26"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="26"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="26"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="26"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="26"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="26"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="26"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="26"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="26"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="26"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="26"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="26"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="26"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="26"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="26"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="26"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="26"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="26"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="26"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="26"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="26"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="26"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="26"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="26"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="26"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="26"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="26"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="26"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="26"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="26"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="26"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="26"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="26"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="26"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="26"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="26"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="26"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="26"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="26"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="26"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="26"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="26"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="26"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="26"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="26"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="26"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="26"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="26"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="26"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="26"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="26"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="26"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="26"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="26"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="26"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="26"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="26"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="26"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="26"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="26"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="26"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="26"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="26"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="26"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="26"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="26"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="26"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="26"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="26"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="26"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="26"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="26"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="26"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="26"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="26"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="26"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="26"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="26"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="26"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="26"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="26"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="26"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="26"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="26"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="26"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="26"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="26"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="26"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="26"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="26"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="26"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="26"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="26"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="26"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="26"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="26"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="26"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="26"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="26"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="26"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="26"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="26"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="26"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="26"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="26"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="26"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="26"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="26"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="26"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="26"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="26"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="26"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="26"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="26"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="26"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="26"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="26"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="26"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="26"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="26"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="26"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="26"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="26"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="26"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="26"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="26"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="26"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="26"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="26"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="26"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="26"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="26"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="26"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="26"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="26"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="26"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="26"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="26"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="26"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="26"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="26"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="26"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="26"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="26"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="26"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="26"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="26"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="26"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="26"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="26"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="26"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="26"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="26"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="26"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="26"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="26"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="26"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="26"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="26"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="26"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="26"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="26"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="26"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="26"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="26"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="26"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="26"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="26"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="26"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="26"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="26"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="26"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="26"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" s="26"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" s="26"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" s="26"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="26"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="26"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" s="26"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" s="26"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" s="26"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="26"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" s="26"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" s="26"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="26"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" s="26"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="26"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" s="26"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" s="26"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="26"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" s="26"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" s="26"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" s="26"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" s="26"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" s="26"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" s="26"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" s="26"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" s="26"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="26"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" s="26"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" s="26"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" s="26"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" s="26"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" s="26"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" s="26"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" s="26"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" s="26"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" s="26"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" s="26"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" s="26"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" s="26"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" s="26"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" s="26"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" s="26"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" s="26"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="26"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" s="26"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" s="26"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" s="26"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="26"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" s="26"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" s="26"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" s="26"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" s="26"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" s="26"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="26"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" s="26"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" s="26"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" s="26"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" s="26"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" s="26"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" s="26"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" s="26"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" s="26"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" s="26"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" s="26"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" s="26"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" s="26"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" s="26"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" s="26"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="26"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" s="26"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" s="26"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" s="26"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" s="26"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" s="26"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="26"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="26"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" s="26"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" s="26"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" s="26"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" s="26"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" s="26"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="26"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="26"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="26"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="26"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="26"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" s="26"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" s="26"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" s="26"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" s="26"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" s="26"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" s="26"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,1495 +6767,673 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="28"/>
-    <col min="3" max="3" width="31.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="50.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="36.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" s="30" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" s="19">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="D3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B21" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="D6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="D8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="D9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="27"/>
-      <c r="F22" t="s">
-        <v>427</v>
-      </c>
-      <c r="G22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G23" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="27"/>
-      <c r="F25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G25" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="27"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="27"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="27"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="27"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="27"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="27"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="27"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="27"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="27"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="27"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="27"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="27"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="27"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="27"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="27"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="27"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="27"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="27"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="27"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="27"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="27"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="27"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="27"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="27"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="27"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="27"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="27"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="27"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="27"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="27"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="27"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="27"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="27"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="27"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="27"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="27"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="27"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="27"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="27"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="27"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="27"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="27"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="27"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="27"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="27"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="27"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="27"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="27"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="27"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="27"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="27"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="27"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="27"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="27"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="27"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="27"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="27"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="27"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="27"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="27"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="27"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="27"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="27"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="27"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="27"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="27"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="27"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="27"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="27"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="27"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="27"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="27"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="27"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="27"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="27"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="27"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="27"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="27"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="27"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="27"/>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="27"/>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="27"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="27"/>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="27"/>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="27"/>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="27"/>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="27"/>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="27"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="27"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="27"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="27"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="27"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="27"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="27"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="27"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="27"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="27"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="27"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="27"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="27"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="27"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="27"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="27"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="27"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="27"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="27"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="27"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="27"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="27"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="27"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="27"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="27"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="27"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="27"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="27"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="27"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C156" s="27"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="27"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C158" s="27"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="27"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C160" s="27"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="27"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="27"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="27"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="27"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="27"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="27"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="27"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="27"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="27"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="27"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="27"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="27"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="27"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="27"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="27"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="27"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="27"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" s="27"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="27"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="27"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C181" s="27"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="27"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="27"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C184" s="27"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C185" s="27"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C186" s="27"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C187" s="27"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C188" s="27"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" s="27"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C190" s="27"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C191" s="27"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C192" s="27"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="27"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="27"/>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C195" s="27"/>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="27"/>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C197" s="27"/>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C198" s="27"/>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C199" s="27"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="27"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="27"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="27"/>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="27"/>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="27"/>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" s="27"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="27"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" s="27"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="27"/>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" s="27"/>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="27"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="27"/>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="27"/>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" s="27"/>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="27"/>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" s="27"/>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="27"/>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="27"/>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="27"/>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" s="27"/>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="27"/>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" s="27"/>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="27"/>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="27"/>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="27"/>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" s="27"/>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="27"/>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="27"/>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="27"/>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="27"/>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="27"/>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="27"/>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="27"/>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="27"/>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="27"/>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C235" s="27"/>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" s="27"/>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="27"/>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" s="27"/>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C239" s="27"/>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C240" s="27"/>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C241" s="27"/>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C242" s="27"/>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="27"/>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="27"/>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C245" s="27"/>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="27"/>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C247" s="27"/>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="27"/>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C249" s="27"/>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C250" s="27"/>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="27"/>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C252" s="27"/>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C253" s="27"/>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="27"/>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C255" s="27"/>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C256" s="27"/>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C257" s="27"/>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="27"/>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C259" s="27"/>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="27"/>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C261" s="27"/>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="27"/>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C263" s="27"/>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="27"/>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="27"/>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C266" s="27"/>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C267" s="27"/>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C268" s="27"/>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="27"/>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="27"/>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C271" s="27"/>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C272" s="27"/>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C273" s="27"/>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="27"/>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C275" s="27"/>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="27"/>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C277" s="27"/>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C278" s="27"/>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="27"/>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C280" s="27"/>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C281" s="27"/>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C282" s="27"/>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C283" s="27"/>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="27"/>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C285" s="27"/>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="27"/>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C287" s="27"/>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C288" s="27"/>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C289" s="27"/>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="27"/>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C291" s="27"/>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="27"/>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C293" s="27"/>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="27"/>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="27"/>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C296" s="27"/>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="27"/>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C298" s="27"/>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C299" s="27"/>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C300" s="27"/>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="27"/>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C302" s="27"/>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C303" s="27"/>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C304" s="27"/>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="27"/>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C306" s="27"/>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C307" s="27"/>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C308" s="27"/>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C309" s="27"/>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="27"/>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C311" s="27"/>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C312" s="27"/>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C313" s="27"/>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C314" s="27"/>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C315" s="27"/>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C316" s="27"/>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C317" s="27"/>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C318" s="27"/>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C319" s="27"/>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C320" s="27"/>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C321" s="27"/>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C322" s="27"/>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C323" s="27"/>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C324" s="27"/>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C325" s="27"/>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C326" s="27"/>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C327" s="27"/>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C328" s="27"/>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C329" s="27"/>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C330" s="27"/>
-    </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C331" s="27"/>
-    </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C332" s="27"/>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C333" s="27"/>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="27"/>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="27"/>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C336" s="27"/>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C337" s="27"/>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C338" s="27"/>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="27"/>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C340" s="27"/>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C341" s="27"/>
-    </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C342" s="27"/>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C343" s="27"/>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C344" s="27"/>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C345" s="27"/>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C346" s="27"/>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C347" s="27"/>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C348" s="27"/>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="27"/>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C350" s="27"/>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="27"/>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C352" s="27"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C353" s="27"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C354" s="27"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C355" s="27"/>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C356" s="27"/>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C357" s="27"/>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C358" s="27"/>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C359" s="27"/>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C360" s="27"/>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C361" s="27"/>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="27"/>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C363" s="27"/>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C364" s="27"/>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="27"/>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="27"/>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="27"/>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C368" s="27"/>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="27"/>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C370" s="27"/>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="27"/>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C372" s="27"/>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C373" s="27"/>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C374" s="27"/>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C375" s="27"/>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C376" s="27"/>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C377" s="27"/>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="27"/>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C379" s="27"/>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C380" s="27"/>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C381" s="27"/>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="27"/>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C383" s="27"/>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="27"/>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C385" s="27"/>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C386" s="27"/>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C387" s="27"/>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C388" s="27"/>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C389" s="27"/>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C390" s="27"/>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="27"/>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C392" s="27"/>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C393" s="27"/>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="27"/>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C395" s="27"/>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C396" s="27"/>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C397" s="27"/>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C398" s="27"/>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C399" s="27"/>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C400" s="27"/>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C401" s="27"/>
+      <c r="B27" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:K3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>